--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4693.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4693.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4693</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Thomas Kevin Curran</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Fast Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>29/09/2017</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4075</t>
+          <t>4075</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4123</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4125</t>
+          <t>4125</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4137</t>
+          <t>4137</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -696,7 +760,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>28/02/2018</t>
@@ -704,7 +767,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4138</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -756,7 +819,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4139</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -808,7 +871,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4146</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -848,7 +911,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>10/03/2018</t>
@@ -856,7 +918,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4149</t>
+          <t>4149</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -896,7 +958,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>17/10/2018</t>
@@ -904,7 +965,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4211</t>
+          <t>4211</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -944,7 +1005,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>20/10/2018</t>
@@ -952,7 +1012,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4212</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1004,7 +1064,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4215</t>
+          <t>4215</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1056,7 +1116,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4254</t>
+          <t>4254</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1108,7 +1168,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4260</t>
+          <t>4260</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1160,7 +1220,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4284</t>
+          <t>4284</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1200,7 +1260,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>14/05/2019</t>
@@ -1208,7 +1267,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4294</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1260,7 +1319,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4297</t>
+          <t>4297</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1312,7 +1371,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4300</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1364,7 +1423,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4401</t>
+          <t>4401</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1404,7 +1463,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>07/02/2020</t>
@@ -1412,7 +1470,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4405</t>
+          <t>4405</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1464,7 +1522,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4408</t>
+          <t>4408</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1504,7 +1562,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>30/07/2020</t>
@@ -1512,7 +1569,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4426</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1564,7 +1621,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4428</t>
+          <t>4428</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1616,7 +1673,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4430</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1668,7 +1725,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4431</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1720,7 +1777,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4454</t>
+          <t>4454</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1760,7 +1817,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>26/03/2021</t>
@@ -1768,7 +1824,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4456</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1808,7 +1864,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>01/07/2021</t>
@@ -1816,7 +1871,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4470</t>
+          <t>4470</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1856,7 +1911,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>04/07/2021</t>
@@ -1864,7 +1918,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4471</t>
+          <t>4471</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1903,7 +1957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1925,7 +1979,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1962,7 +2016,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4075</t>
+          <t>4075</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1999,7 +2053,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4123</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2036,7 +2090,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4125</t>
+          <t>4125</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2073,7 +2127,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4137</t>
+          <t>4137</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2110,7 +2164,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4138</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2147,7 +2201,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4139</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2184,7 +2238,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4146</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2221,7 +2275,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4149</t>
+          <t>4149</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2258,7 +2312,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4211</t>
+          <t>4211</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2295,7 +2349,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4212</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2332,7 +2386,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4215</t>
+          <t>4215</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2369,7 +2423,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4254</t>
+          <t>4254</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2406,7 +2460,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4260</t>
+          <t>4260</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2443,7 +2497,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4284</t>
+          <t>4284</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2480,7 +2534,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4294</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2517,7 +2571,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4297</t>
+          <t>4297</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2554,7 +2608,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4300</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2591,7 +2645,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4401</t>
+          <t>4401</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2628,7 +2682,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4405</t>
+          <t>4405</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2665,7 +2719,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4408</t>
+          <t>4408</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2702,7 +2756,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4426</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2739,7 +2793,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4428</t>
+          <t>4428</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2776,7 +2830,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4430</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2813,7 +2867,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4431</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2850,7 +2904,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4454</t>
+          <t>4454</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2887,7 +2941,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4456</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2924,7 +2978,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4470</t>
+          <t>4470</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2961,7 +3015,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4471</t>
+          <t>4471</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2987,6 +3041,515 @@
       <c r="G29" t="inlineStr">
         <is>
           <t>4/35</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4211</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4212</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4215</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.76%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4254</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4260</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4284</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.62%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4294</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4297</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>9.09%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4300</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>8.26%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4401</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4405</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4408</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4426</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4428</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>11.59%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>16.02%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>6.29%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4454</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>4.38%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4456</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4470</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4471</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4693.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4693.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3104,9 +3105,6 @@
       <c r="B2" t="n">
         <v>9</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3122,9 +3120,6 @@
       <c r="B3" t="n">
         <v>9</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3180,7 +3175,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3206,7 +3200,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3249,15 +3242,401 @@
           <t>4294</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4297</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>9.09%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4300</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>8.26%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4401</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4405</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4408</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4426</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4428</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>11.59%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>16.02%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>6.29%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4454</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>4.38%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4456</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4470</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4471</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4211</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4212</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4215</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4254</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4260</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4284</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4294</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3265,27 +3644,14 @@
           <t>4297</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>8</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>9.09%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -3295,29 +3661,12 @@
           <t>4300</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>8.26%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3327,13 +3676,6 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3343,13 +3685,6 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3359,13 +3694,6 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3375,13 +3703,6 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3389,29 +3710,12 @@
           <t>4428</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>11.59%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3419,29 +3723,12 @@
           <t>4430</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>9</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>16.02%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3449,29 +3736,12 @@
           <t>4431</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>8</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>6.29%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3479,29 +3749,12 @@
           <t>4454</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>9</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.38%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3511,13 +3764,6 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3525,17 +3771,12 @@
           <t>4470</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>8</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3545,13 +3786,6 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4693.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4693.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1476,7 +1475,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1924,7 +1923,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3105,6 +3104,9 @@
       <c r="B2" t="n">
         <v>9</v>
       </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3120,6 +3122,9 @@
       <c r="B3" t="n">
         <v>9</v>
       </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3175,6 +3180,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3200,6 +3206,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3242,6 +3249,10 @@
           <t>4294</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3314,6 +3325,10 @@
           <t>4401</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3326,6 +3341,10 @@
           <t>4405</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3338,6 +3357,10 @@
           <t>4408</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3350,6 +3373,10 @@
           <t>4426</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3482,6 +3509,10 @@
           <t>4456</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3497,6 +3528,9 @@
       <c r="B20" t="n">
         <v>8</v>
       </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3509,283 +3543,15 @@
           <t>4471</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4211</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4212</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4215</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4254</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4260</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4284</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4294</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4297</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4300</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4401</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4405</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4408</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4426</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4428</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4430</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4431</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4454</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4456</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4470</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4471</t>
-        </is>
-      </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_4693.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_4693.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -557,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>29/09/2017</t>
@@ -760,6 +760,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>28/02/2018</t>
@@ -911,6 +912,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>10/03/2018</t>
@@ -958,6 +960,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>17/10/2018</t>
@@ -1005,6 +1008,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>20/10/2018</t>
@@ -1260,6 +1264,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>14/05/2019</t>
@@ -1463,6 +1468,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>07/02/2020</t>
@@ -1562,6 +1568,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>30/07/2020</t>
@@ -1817,6 +1824,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>26/03/2021</t>
@@ -1864,6 +1872,7 @@
           <t>27</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>01/07/2021</t>
@@ -1911,6 +1920,7 @@
           <t>28</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>04/07/2021</t>
@@ -3047,513 +3057,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4211</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>9</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4212</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>9</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4215</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.76%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4254</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4260</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>9</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4284</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>23.62%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4294</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4297</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>9.09%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4300</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>8.26%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4401</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4405</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4408</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4426</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4428</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>11.59%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4430</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>9</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>16.02%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4431</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>8</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>6.29%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4454</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>9</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.38%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4456</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4470</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>8</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4471</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>